--- a/Resultados sin preprocesamiento gaussiano.xlsx
+++ b/Resultados sin preprocesamiento gaussiano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG\Transfer-Learning-EDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180884D-8978-479A-A4C0-B74A3F33B6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88848527-3AC2-4E3B-94AB-68A2FB045958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class weight sin messidor" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +276,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -304,24 +316,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -598,13 +618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -614,58 +634,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.78</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.82</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.83</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -673,155 +693,323 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -830,58 +1018,58 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0.76</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.78</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.82</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0.83</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1071,58 +1259,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.78</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.82</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.83</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1287,58 +1475,58 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0.76</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.78</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.82</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0.83</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1524,58 +1712,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.78</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.82</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.83</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1740,58 +1928,58 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0.76</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.78</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.82</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0.83</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -1964,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE273283-A761-4251-BDCD-B0E3F3261434}">
   <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1980,58 +2168,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0.78</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.82</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>0.83</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0.83</v>
       </c>
     </row>
@@ -2196,58 +2384,58 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.75529999999999997</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>0.76</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>0.78</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>0.82</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0.83</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>0.83</v>
       </c>
     </row>
